--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il4-Il13ra2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il4-Il13ra2.xlsx
@@ -537,22 +537,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1647103333333333</v>
+        <v>0.589944</v>
       </c>
       <c r="H2">
-        <v>0.494131</v>
+        <v>1.769832</v>
       </c>
       <c r="I2">
-        <v>0.05373200903458847</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="J2">
-        <v>0.05373200903458848</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.3131062179568889</v>
+        <v>1.121454440096</v>
       </c>
       <c r="R2">
-        <v>2.817955961612</v>
+        <v>10.093089960864</v>
       </c>
       <c r="S2">
-        <v>0.05373200903458847</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="T2">
-        <v>0.05373200903458848</v>
+        <v>0.1315369184485108</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>2.034941</v>
       </c>
       <c r="I3">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="J3">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -641,10 +641,10 @@
         <v>11.604967351732</v>
       </c>
       <c r="S3">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="T3">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3320596666666666</v>
+        <v>0.3049506666666666</v>
       </c>
       <c r="H4">
-        <v>0.9961789999999999</v>
+        <v>0.914852</v>
       </c>
       <c r="I4">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="J4">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.631229044723111</v>
+        <v>0.5796961731004444</v>
       </c>
       <c r="R4">
-        <v>5.681061402508</v>
+        <v>5.217265557904</v>
       </c>
       <c r="S4">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="T4">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.362438</v>
+        <v>0.4130943333333333</v>
       </c>
       <c r="H5">
-        <v>4.087314</v>
+        <v>1.239283</v>
       </c>
       <c r="I5">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="J5">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>2.589927424392</v>
+        <v>0.7852719483462222</v>
       </c>
       <c r="R5">
-        <v>23.309346819528</v>
+        <v>7.067447535115999</v>
       </c>
       <c r="S5">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="T5">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2558096666666667</v>
+        <v>0.8655823333333333</v>
       </c>
       <c r="H6">
-        <v>0.767429</v>
+        <v>2.596747</v>
       </c>
       <c r="I6">
-        <v>0.08345054643688657</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="J6">
-        <v>0.08345054643688658</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.4862815563897778</v>
+        <v>1.645429313604889</v>
       </c>
       <c r="R6">
-        <v>4.376534007508</v>
+        <v>14.808863822444</v>
       </c>
       <c r="S6">
-        <v>0.08345054643688657</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="T6">
-        <v>0.08345054643688658</v>
+        <v>0.1929946448987334</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.272073</v>
+        <v>1.633122</v>
       </c>
       <c r="H7">
-        <v>0.816219</v>
+        <v>4.899366000000001</v>
       </c>
       <c r="I7">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="J7">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.517197350732</v>
+        <v>3.104484354648001</v>
       </c>
       <c r="R7">
-        <v>4.654776156588</v>
+        <v>27.940359191832</v>
       </c>
       <c r="S7">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="T7">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
     </row>
   </sheetData>
